--- a/zibs2024/mappable/Nl.zorg.LaboratoryTestResult-v7.1(2024EN).xlsx
+++ b/zibs2024/mappable/Nl.zorg.LaboratoryTestResult-v7.1(2024EN).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/wouter_zanen_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/zibs2024/mappable/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_559162F72993CF376D2C4C56CD28263D7878B46B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE235FEF-F1F4-4E7B-B4B4-795BB123172B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -521,8 +527,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,17 +587,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +643,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -663,6 +677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -697,9 +712,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,14 +888,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -928,7 +949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -954,7 +975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1006,7 +1027,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1137,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1195,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1224,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1247,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1302,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1328,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1333,7 +1354,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +1383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1443,7 +1464,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1472,7 +1493,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +1519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1577,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1603,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1605,7 +1626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
